--- a/project7-2-grocery/existing_predict.xlsx
+++ b/project7-2-grocery/existing_predict.xlsx
@@ -370,7 +370,7 @@
         </is>
       </c>
       <c r="C2" s="0">
-        <v>20953969.8190594</v>
+        <v>21174989.4036602</v>
       </c>
     </row>
     <row r="3">
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="C3" s="0">
-        <v>20158134.5289948</v>
+        <v>20479354.5775833</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="C4" s="0">
-        <v>22889569.5707944</v>
+        <v>23580340.680392</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="C5" s="0">
-        <v>21878375.8277513</v>
+        <v>22236546.2347006</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="C6" s="0">
-        <v>24774819.2016722</v>
+        <v>25427255.4570655</v>
       </c>
     </row>
     <row r="7">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C7" s="0">
-        <v>25246762.8152178</v>
+        <v>26143967.4040482</v>
       </c>
     </row>
     <row r="8">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C8" s="0">
-        <v>25681136.5384544</v>
+        <v>26399993.2670309</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C9" s="0">
-        <v>22518098.6754374</v>
+        <v>23172393.8800141</v>
       </c>
     </row>
     <row r="10">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C10" s="0">
-        <v>19780347.3406343</v>
+        <v>20544268.6388211</v>
       </c>
     </row>
     <row r="11">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C11" s="0">
-        <v>19160357.3637504</v>
+        <v>20182471.0857073</v>
       </c>
     </row>
     <row r="12">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C12" s="0">
-        <v>19813266.2324223</v>
+        <v>20966876.3524668</v>
       </c>
     </row>
     <row r="13">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C13" s="0">
-        <v>20131473.4056341</v>
+        <v>20965097.0016918</v>
       </c>
     </row>
   </sheetData>
